--- a/data/pca/factorExposure/factorExposure_2015-03-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01735341752657646</v>
+        <v>0.01051462593210044</v>
       </c>
       <c r="C2">
-        <v>-0.02899301253350042</v>
+        <v>0.05282101663177876</v>
       </c>
       <c r="D2">
-        <v>0.1422762270685385</v>
+        <v>0.1103098264938538</v>
       </c>
       <c r="E2">
-        <v>0.06018133761443993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.06168125310396021</v>
+      </c>
+      <c r="F2">
+        <v>0.03588800140312968</v>
+      </c>
+      <c r="G2">
+        <v>-0.1471531575943126</v>
+      </c>
+      <c r="H2">
+        <v>0.05376833893904768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04357143859574931</v>
+        <v>0.02058113972671456</v>
       </c>
       <c r="C4">
-        <v>-0.07873154135487262</v>
+        <v>0.1146441751429924</v>
       </c>
       <c r="D4">
-        <v>0.1041415754704667</v>
+        <v>0.1062227917969272</v>
       </c>
       <c r="E4">
-        <v>0.116595053665176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0654758730032606</v>
+      </c>
+      <c r="F4">
+        <v>0.09199200616055581</v>
+      </c>
+      <c r="G4">
+        <v>-0.0197152590387066</v>
+      </c>
+      <c r="H4">
+        <v>-0.07433172522118216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02970211793075232</v>
+        <v>0.0347809383510849</v>
       </c>
       <c r="C6">
-        <v>-0.02018422060501604</v>
+        <v>0.03939469146408227</v>
       </c>
       <c r="D6">
-        <v>0.1104635856752421</v>
+        <v>0.08806528262088191</v>
       </c>
       <c r="E6">
-        <v>0.07530944827871108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.09272942148878276</v>
+      </c>
+      <c r="F6">
+        <v>0.04004995537650303</v>
+      </c>
+      <c r="G6">
+        <v>0.000576883431272604</v>
+      </c>
+      <c r="H6">
+        <v>0.01403941723770648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003516263147251864</v>
+        <v>0.006187991229448147</v>
       </c>
       <c r="C7">
-        <v>-0.02702241775894636</v>
+        <v>0.04185166620083748</v>
       </c>
       <c r="D7">
-        <v>0.09903634133765458</v>
+        <v>0.08330339572113243</v>
       </c>
       <c r="E7">
-        <v>0.04437261825512339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0854937667845395</v>
+      </c>
+      <c r="F7">
+        <v>0.01474103839053938</v>
+      </c>
+      <c r="G7">
+        <v>0.008552883189478439</v>
+      </c>
+      <c r="H7">
+        <v>-0.02869632578568206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0006122935417655328</v>
+        <v>-0.005432541506298585</v>
       </c>
       <c r="C8">
-        <v>-0.02792196126484747</v>
+        <v>0.03782577338514265</v>
       </c>
       <c r="D8">
-        <v>0.07466990815078875</v>
+        <v>0.05535811107407774</v>
       </c>
       <c r="E8">
-        <v>0.05902410333167831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.05338920032227051</v>
+      </c>
+      <c r="F8">
+        <v>0.05093430762663999</v>
+      </c>
+      <c r="G8">
+        <v>-0.07510214879812099</v>
+      </c>
+      <c r="H8">
+        <v>-0.04177294393149784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03328084774123737</v>
+        <v>0.01428070222953987</v>
       </c>
       <c r="C9">
-        <v>-0.06854435333702995</v>
+        <v>0.09422894607800675</v>
       </c>
       <c r="D9">
-        <v>0.1083315948419738</v>
+        <v>0.09332755652998038</v>
       </c>
       <c r="E9">
-        <v>0.09576550142142745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.05693971177751506</v>
+      </c>
+      <c r="F9">
+        <v>0.06008726116079107</v>
+      </c>
+      <c r="G9">
+        <v>-0.002717653160064245</v>
+      </c>
+      <c r="H9">
+        <v>-0.02656544057965836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1986859798912818</v>
+        <v>0.245375668732634</v>
       </c>
       <c r="C10">
-        <v>0.154329429992962</v>
+        <v>-0.0915405623737838</v>
       </c>
       <c r="D10">
-        <v>-0.03756485586796957</v>
+        <v>-0.01452165649587419</v>
       </c>
       <c r="E10">
-        <v>0.03052039683692442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02082891531207741</v>
+      </c>
+      <c r="F10">
+        <v>0.04245498593336358</v>
+      </c>
+      <c r="G10">
+        <v>0.004068248379337809</v>
+      </c>
+      <c r="H10">
+        <v>0.002451442597549516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01257880975376307</v>
+        <v>0.009842349564923565</v>
       </c>
       <c r="C11">
-        <v>-0.04342693787881748</v>
+        <v>0.06130898740031948</v>
       </c>
       <c r="D11">
-        <v>0.04255113773774462</v>
+        <v>0.03439274970290532</v>
       </c>
       <c r="E11">
-        <v>-0.005648743605281228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04021100707372047</v>
+      </c>
+      <c r="F11">
+        <v>-0.011227449607377</v>
+      </c>
+      <c r="G11">
+        <v>0.003779706114067225</v>
+      </c>
+      <c r="H11">
+        <v>-0.02145490642608994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01114834147161204</v>
+        <v>0.01013246574197197</v>
       </c>
       <c r="C12">
-        <v>-0.04323845379585251</v>
+        <v>0.05162769327383739</v>
       </c>
       <c r="D12">
-        <v>0.05862078505441274</v>
+        <v>0.04221012355673415</v>
       </c>
       <c r="E12">
-        <v>0.01287566094517147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03460874961446592</v>
+      </c>
+      <c r="F12">
+        <v>-0.01167036800697831</v>
+      </c>
+      <c r="G12">
+        <v>0.01181905581183928</v>
+      </c>
+      <c r="H12">
+        <v>0.01627340827452747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007524427943357867</v>
+        <v>0.004381049411721665</v>
       </c>
       <c r="C13">
-        <v>-0.02962143646705014</v>
+        <v>0.0607257572099458</v>
       </c>
       <c r="D13">
-        <v>0.1305361668075908</v>
+        <v>0.1449793900408212</v>
       </c>
       <c r="E13">
-        <v>0.08276804119886838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.08685302229918263</v>
+      </c>
+      <c r="F13">
+        <v>0.04104655479073543</v>
+      </c>
+      <c r="G13">
+        <v>-0.06249827260459235</v>
+      </c>
+      <c r="H13">
+        <v>0.07021064008581053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0132371488405937</v>
+        <v>0.001335331394742937</v>
       </c>
       <c r="C14">
-        <v>-0.01768875216330924</v>
+        <v>0.03357081243268967</v>
       </c>
       <c r="D14">
-        <v>0.07024419943587903</v>
+        <v>0.08081368488558745</v>
       </c>
       <c r="E14">
-        <v>0.03920365665840553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09267943566555516</v>
+      </c>
+      <c r="F14">
+        <v>0.03422574105151603</v>
+      </c>
+      <c r="G14">
+        <v>-0.01579007115575917</v>
+      </c>
+      <c r="H14">
+        <v>0.02854303341714318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002951087829905861</v>
+        <v>-0.003666177246057247</v>
       </c>
       <c r="C15">
-        <v>-0.0125584701768859</v>
+        <v>0.0310956018656221</v>
       </c>
       <c r="D15">
-        <v>0.04995438171749617</v>
+        <v>0.05716846899119509</v>
       </c>
       <c r="E15">
-        <v>0.016645451441727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.04299048366812648</v>
+      </c>
+      <c r="F15">
+        <v>0.009415223716127973</v>
+      </c>
+      <c r="G15">
+        <v>-0.02702125854974502</v>
+      </c>
+      <c r="H15">
+        <v>-0.01445538112352208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01188478353208293</v>
+        <v>0.009386592554360787</v>
       </c>
       <c r="C16">
-        <v>-0.04040382853808317</v>
+        <v>0.05330538485666442</v>
       </c>
       <c r="D16">
-        <v>0.04650191790182647</v>
+        <v>0.03661692853889145</v>
       </c>
       <c r="E16">
-        <v>0.006255688174028995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.04012357603451172</v>
+      </c>
+      <c r="F16">
+        <v>-0.006274903750543221</v>
+      </c>
+      <c r="G16">
+        <v>0.01458974261208014</v>
+      </c>
+      <c r="H16">
+        <v>-0.009801418855640226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.001474836481605325</v>
+        <v>-0.002622117300445378</v>
       </c>
       <c r="C19">
-        <v>-0.02112619537245308</v>
+        <v>0.01643620738018613</v>
       </c>
       <c r="D19">
-        <v>0.06638702429386427</v>
+        <v>0.03693130310340189</v>
       </c>
       <c r="E19">
-        <v>0.03771017603074625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.005422295719117236</v>
+      </c>
+      <c r="F19">
+        <v>0.007768546921399304</v>
+      </c>
+      <c r="G19">
+        <v>-0.01659097917273549</v>
+      </c>
+      <c r="H19">
+        <v>0.0166678368978058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0005121447333766945</v>
+        <v>0.004452523312637619</v>
       </c>
       <c r="C20">
-        <v>-0.02846985922078111</v>
+        <v>0.04555291555935876</v>
       </c>
       <c r="D20">
-        <v>0.06726200586622531</v>
+        <v>0.07310948192311122</v>
       </c>
       <c r="E20">
-        <v>0.05441849074966894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05430999914761408</v>
+      </c>
+      <c r="F20">
+        <v>0.02524533921508828</v>
+      </c>
+      <c r="G20">
+        <v>0.01282468401335194</v>
+      </c>
+      <c r="H20">
+        <v>-0.03148833478708532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0009943563071617028</v>
+        <v>0.002749587621719336</v>
       </c>
       <c r="C21">
-        <v>-0.03210288911343821</v>
+        <v>0.04605627715677457</v>
       </c>
       <c r="D21">
-        <v>0.1132752686426432</v>
+        <v>0.1056520361198397</v>
       </c>
       <c r="E21">
-        <v>0.1225577477255015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0693287179764228</v>
+      </c>
+      <c r="F21">
+        <v>0.09785680683389757</v>
+      </c>
+      <c r="G21">
+        <v>-0.07149462314247444</v>
+      </c>
+      <c r="H21">
+        <v>0.08232521550942347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002851851286006913</v>
+        <v>-0.007254767283490318</v>
       </c>
       <c r="C22">
-        <v>-0.05416703812360011</v>
+        <v>0.08559994647846246</v>
       </c>
       <c r="D22">
-        <v>0.2165557439326463</v>
+        <v>0.2127033611882183</v>
       </c>
       <c r="E22">
-        <v>0.09848206843826991</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06892489289519563</v>
+      </c>
+      <c r="F22">
+        <v>0.03729508338895345</v>
+      </c>
+      <c r="G22">
+        <v>-0.2451033034837521</v>
+      </c>
+      <c r="H22">
+        <v>-0.1207721169542103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.003277078904439305</v>
+        <v>-0.00414896323852981</v>
       </c>
       <c r="C23">
-        <v>-0.0545766016773751</v>
+        <v>0.08760762183825388</v>
       </c>
       <c r="D23">
-        <v>0.2154504542110408</v>
+        <v>0.2162341976456747</v>
       </c>
       <c r="E23">
-        <v>0.09851826443234059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06607948508937138</v>
+      </c>
+      <c r="F23">
+        <v>0.04056171616902296</v>
+      </c>
+      <c r="G23">
+        <v>-0.2385537982796227</v>
+      </c>
+      <c r="H23">
+        <v>-0.1145800342678406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0177493744693713</v>
+        <v>0.01061504676124606</v>
       </c>
       <c r="C24">
-        <v>-0.06151756705147802</v>
+        <v>0.07094127805196011</v>
       </c>
       <c r="D24">
-        <v>0.06219551385049948</v>
+        <v>0.03792168371733511</v>
       </c>
       <c r="E24">
-        <v>0.01158279500848578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04999509633377544</v>
+      </c>
+      <c r="F24">
+        <v>-0.005272265116779391</v>
+      </c>
+      <c r="G24">
+        <v>-0.003826810263844592</v>
+      </c>
+      <c r="H24">
+        <v>-0.01340125160344698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01748544298366849</v>
+        <v>0.01469453229935267</v>
       </c>
       <c r="C25">
-        <v>-0.05349551631415578</v>
+        <v>0.06530063456673593</v>
       </c>
       <c r="D25">
-        <v>0.05098684602848871</v>
+        <v>0.04087604012226324</v>
       </c>
       <c r="E25">
-        <v>0.01522128923834793</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03290006830710231</v>
+      </c>
+      <c r="F25">
+        <v>-0.003337069908403908</v>
+      </c>
+      <c r="G25">
+        <v>0.0112042653169319</v>
+      </c>
+      <c r="H25">
+        <v>-0.00891510711556189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005498288607582475</v>
+        <v>0.01636207990574263</v>
       </c>
       <c r="C26">
-        <v>-0.01905856877123401</v>
+        <v>0.03242998034704122</v>
       </c>
       <c r="D26">
-        <v>0.06096104036913198</v>
+        <v>0.04974324091259963</v>
       </c>
       <c r="E26">
-        <v>0.04269995109202585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06817425245462411</v>
+      </c>
+      <c r="F26">
+        <v>0.04824802767097574</v>
+      </c>
+      <c r="G26">
+        <v>-0.02733155485467295</v>
+      </c>
+      <c r="H26">
+        <v>0.0002213334011457433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2801099992098215</v>
+        <v>0.3136109945590709</v>
       </c>
       <c r="C28">
-        <v>0.1650765705619526</v>
+        <v>-0.08865987325804676</v>
       </c>
       <c r="D28">
-        <v>-0.004504265957365257</v>
+        <v>-0.01209192469126666</v>
       </c>
       <c r="E28">
-        <v>0.03294840633342114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05449768439979449</v>
+      </c>
+      <c r="F28">
+        <v>0.04575437605012524</v>
+      </c>
+      <c r="G28">
+        <v>-0.06049025471873516</v>
+      </c>
+      <c r="H28">
+        <v>-0.02158817724299886</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005157280437571896</v>
+        <v>0.001464523966279953</v>
       </c>
       <c r="C29">
-        <v>-0.02180585882134976</v>
+        <v>0.04023934176297356</v>
       </c>
       <c r="D29">
-        <v>0.07114269306388153</v>
+        <v>0.08535856306025012</v>
       </c>
       <c r="E29">
-        <v>0.04845107128810648</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1061465355630677</v>
+      </c>
+      <c r="F29">
+        <v>0.03950657335779123</v>
+      </c>
+      <c r="G29">
+        <v>-0.0134467456163674</v>
+      </c>
+      <c r="H29">
+        <v>0.03673750422076465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02663309825364431</v>
+        <v>0.0177446496386839</v>
       </c>
       <c r="C30">
-        <v>-0.07388695810717638</v>
+        <v>0.1004852996266179</v>
       </c>
       <c r="D30">
-        <v>0.1503749171884424</v>
+        <v>0.1100597365761666</v>
       </c>
       <c r="E30">
-        <v>0.06657186111094994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.09427262281860983</v>
+      </c>
+      <c r="F30">
+        <v>0.01563736795304579</v>
+      </c>
+      <c r="G30">
+        <v>-0.02250611093181151</v>
+      </c>
+      <c r="H30">
+        <v>-0.04617861505654278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03097361526573889</v>
+        <v>0.009903429788750044</v>
       </c>
       <c r="C31">
-        <v>-0.08569518871589374</v>
+        <v>0.09489883841648478</v>
       </c>
       <c r="D31">
-        <v>0.05187030810115131</v>
+        <v>0.02902862943701573</v>
       </c>
       <c r="E31">
-        <v>0.0259216067252744</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02542317711092039</v>
+      </c>
+      <c r="F31">
+        <v>0.01799189565004505</v>
+      </c>
+      <c r="G31">
+        <v>-0.0169524741652462</v>
+      </c>
+      <c r="H31">
+        <v>-0.006920187303719118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01508739856894897</v>
+        <v>0.0147586552572847</v>
       </c>
       <c r="C32">
-        <v>-0.04321127379144724</v>
+        <v>0.05193095829342773</v>
       </c>
       <c r="D32">
-        <v>0.0875074200152214</v>
+        <v>0.07518189535008661</v>
       </c>
       <c r="E32">
-        <v>0.07300242420106086</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01637127478301217</v>
+      </c>
+      <c r="F32">
+        <v>0.05004689096278456</v>
+      </c>
+      <c r="G32">
+        <v>-0.03386602662836862</v>
+      </c>
+      <c r="H32">
+        <v>0.02352501285974142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004036197418811031</v>
+        <v>0.007228278437266969</v>
       </c>
       <c r="C33">
-        <v>-0.04204477993341948</v>
+        <v>0.06547954439267825</v>
       </c>
       <c r="D33">
-        <v>0.1063648852102036</v>
+        <v>0.1027603563378402</v>
       </c>
       <c r="E33">
-        <v>0.06868103925309603</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.06955812995219843</v>
+      </c>
+      <c r="F33">
+        <v>0.03106208233429775</v>
+      </c>
+      <c r="G33">
+        <v>-0.01025098151032448</v>
+      </c>
+      <c r="H33">
+        <v>-0.00199933446041642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01389497738636358</v>
+        <v>0.009021392421744439</v>
       </c>
       <c r="C34">
-        <v>-0.06148052712785806</v>
+        <v>0.06291635257264824</v>
       </c>
       <c r="D34">
-        <v>0.05360786475275368</v>
+        <v>0.01929943993470266</v>
       </c>
       <c r="E34">
-        <v>-0.03243598416028971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03689803707061531</v>
+      </c>
+      <c r="F34">
+        <v>-0.03794748893374972</v>
+      </c>
+      <c r="G34">
+        <v>-0.00436130892975528</v>
+      </c>
+      <c r="H34">
+        <v>0.001712335431198495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.000252712130171226</v>
+        <v>0.003807351798035747</v>
       </c>
       <c r="C35">
-        <v>-0.0008001599074852431</v>
+        <v>0.01574991963888124</v>
       </c>
       <c r="D35">
-        <v>0.000969077015170087</v>
+        <v>0.03326158676678184</v>
       </c>
       <c r="E35">
-        <v>-0.0002220513542373774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.02355821991528258</v>
+      </c>
+      <c r="F35">
+        <v>0.01951436908550976</v>
+      </c>
+      <c r="G35">
+        <v>0.001321040223050182</v>
+      </c>
+      <c r="H35">
+        <v>0.00427147605155332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005506194644277989</v>
+        <v>0.01045622824532734</v>
       </c>
       <c r="C36">
-        <v>-0.01028355900973988</v>
+        <v>0.0249336117762712</v>
       </c>
       <c r="D36">
-        <v>0.06056916288082014</v>
+        <v>0.05970054280056167</v>
       </c>
       <c r="E36">
-        <v>0.06226140628162791</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.05773788979002269</v>
+      </c>
+      <c r="F36">
+        <v>0.04960266707231101</v>
+      </c>
+      <c r="G36">
+        <v>-0.01293976543365638</v>
+      </c>
+      <c r="H36">
+        <v>-0.0007240632685758034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002282802518900038</v>
+        <v>0.00907802458362535</v>
       </c>
       <c r="C38">
-        <v>-0.009714991740194807</v>
+        <v>0.0291767095814011</v>
       </c>
       <c r="D38">
-        <v>0.08962107221773494</v>
+        <v>0.08413220846525858</v>
       </c>
       <c r="E38">
-        <v>0.03689792152088536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.04687438620379517</v>
+      </c>
+      <c r="F38">
+        <v>0.0096554019306371</v>
+      </c>
+      <c r="G38">
+        <v>-0.03106786191359681</v>
+      </c>
+      <c r="H38">
+        <v>-0.0372604428883013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01116211297548482</v>
+        <v>0.005941212555525507</v>
       </c>
       <c r="C39">
-        <v>-0.06307569512627625</v>
+        <v>0.08916962411099102</v>
       </c>
       <c r="D39">
-        <v>0.1045013098442333</v>
+        <v>0.07809899570727138</v>
       </c>
       <c r="E39">
-        <v>0.02721648983434399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08881619986295214</v>
+      </c>
+      <c r="F39">
+        <v>-0.006223576794727771</v>
+      </c>
+      <c r="G39">
+        <v>-0.001023937248644938</v>
+      </c>
+      <c r="H39">
+        <v>-0.01137064193109593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01486015942519727</v>
+        <v>0.01327138068201711</v>
       </c>
       <c r="C40">
-        <v>-0.02730905789588305</v>
+        <v>0.04284953000275816</v>
       </c>
       <c r="D40">
-        <v>0.1152747175447901</v>
+        <v>0.07942764017439326</v>
       </c>
       <c r="E40">
-        <v>0.02406618072431442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07038672137197287</v>
+      </c>
+      <c r="F40">
+        <v>-0.02317337178146675</v>
+      </c>
+      <c r="G40">
+        <v>-0.08606187796155242</v>
+      </c>
+      <c r="H40">
+        <v>0.01506432921366342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007576799046012999</v>
+        <v>0.01700913333100908</v>
       </c>
       <c r="C41">
-        <v>-0.006822669944386842</v>
+        <v>0.02435635402133635</v>
       </c>
       <c r="D41">
-        <v>0.02899993961658205</v>
+        <v>0.03861647534452128</v>
       </c>
       <c r="E41">
-        <v>0.0283204940584054</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01907249536346599</v>
+      </c>
+      <c r="F41">
+        <v>0.02081503275412436</v>
+      </c>
+      <c r="G41">
+        <v>-0.006053934146662826</v>
+      </c>
+      <c r="H41">
+        <v>-0.004093614378619224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003565671720843388</v>
+        <v>0.008606710387641598</v>
       </c>
       <c r="C43">
-        <v>-0.001815576636865849</v>
+        <v>0.01708208105585847</v>
       </c>
       <c r="D43">
-        <v>0.04179084499395563</v>
+        <v>0.04746492823883857</v>
       </c>
       <c r="E43">
-        <v>0.03245777776075626</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03084965245791506</v>
+      </c>
+      <c r="F43">
+        <v>0.02381055237982461</v>
+      </c>
+      <c r="G43">
+        <v>-0.002422609238301208</v>
+      </c>
+      <c r="H43">
+        <v>-0.01964721229049162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01793426053004672</v>
+        <v>0.01013828562990968</v>
       </c>
       <c r="C44">
-        <v>-0.02939568046747078</v>
+        <v>0.05195566854680583</v>
       </c>
       <c r="D44">
-        <v>0.09703022720460806</v>
+        <v>0.09105384496592797</v>
       </c>
       <c r="E44">
-        <v>0.0831900527298375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07906103237351687</v>
+      </c>
+      <c r="F44">
+        <v>0.03829996408721371</v>
+      </c>
+      <c r="G44">
+        <v>-0.04229605070443731</v>
+      </c>
+      <c r="H44">
+        <v>-0.02660707698576505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0006511981791479834</v>
+        <v>-0.001992243239314746</v>
       </c>
       <c r="C46">
-        <v>-0.03208107859066157</v>
+        <v>0.04328068114200449</v>
       </c>
       <c r="D46">
-        <v>0.07950840825970527</v>
+        <v>0.06176704558991047</v>
       </c>
       <c r="E46">
-        <v>0.04466956422335483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08061650530263254</v>
+      </c>
+      <c r="F46">
+        <v>0.03330586784105175</v>
+      </c>
+      <c r="G46">
+        <v>-0.02280084372226896</v>
+      </c>
+      <c r="H46">
+        <v>0.0003364592323495717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0651998355697212</v>
+        <v>0.0300178619016318</v>
       </c>
       <c r="C47">
-        <v>-0.1157158974675594</v>
+        <v>0.124784204592035</v>
       </c>
       <c r="D47">
-        <v>0.0590009129713478</v>
+        <v>0.02150375872593807</v>
       </c>
       <c r="E47">
-        <v>0.02683465141875276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0009915881647347053</v>
+      </c>
+      <c r="F47">
+        <v>-0.002921906834332609</v>
+      </c>
+      <c r="G47">
+        <v>0.01789262922565637</v>
+      </c>
+      <c r="H47">
+        <v>-0.01046936285542838</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004353793762256808</v>
+        <v>0.0120517822885064</v>
       </c>
       <c r="C48">
-        <v>-0.01802576885122573</v>
+        <v>0.03383868326812459</v>
       </c>
       <c r="D48">
-        <v>0.06349981641046212</v>
+        <v>0.06447190387778173</v>
       </c>
       <c r="E48">
-        <v>0.06648619937520192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.05573495480437186</v>
+      </c>
+      <c r="F48">
+        <v>0.05868897503385368</v>
+      </c>
+      <c r="G48">
+        <v>-0.01963343133098788</v>
+      </c>
+      <c r="H48">
+        <v>-0.0138468214843095</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002132230901694075</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.001826629626852752</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.003145648626930021</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-3.722717068016993e-06</v>
+      </c>
+      <c r="F49">
+        <v>-0.00217042796342179</v>
+      </c>
+      <c r="G49">
+        <v>0.004791139602131577</v>
+      </c>
+      <c r="H49">
+        <v>0.003223016379058638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03062137001046149</v>
+        <v>0.01449307407040959</v>
       </c>
       <c r="C50">
-        <v>-0.05866170271927008</v>
+        <v>0.07601747426428394</v>
       </c>
       <c r="D50">
-        <v>0.06227496371834362</v>
+        <v>0.04264920609100163</v>
       </c>
       <c r="E50">
-        <v>0.02032641968014361</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0324154027589823</v>
+      </c>
+      <c r="F50">
+        <v>0.009997508941091872</v>
+      </c>
+      <c r="G50">
+        <v>-0.01713672590949171</v>
+      </c>
+      <c r="H50">
+        <v>-0.01737090806235659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005073810587959479</v>
+        <v>-0.004352027240170375</v>
       </c>
       <c r="C51">
-        <v>-0.00566555345873971</v>
+        <v>0.01853837769903977</v>
       </c>
       <c r="D51">
-        <v>0.06085398355419505</v>
+        <v>0.03982680989215954</v>
       </c>
       <c r="E51">
-        <v>0.03771949406043741</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05899375578912748</v>
+      </c>
+      <c r="F51">
+        <v>0.03941816211846717</v>
+      </c>
+      <c r="G51">
+        <v>-0.04863638596950314</v>
+      </c>
+      <c r="H51">
+        <v>0.0005599678774436248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1005800932882221</v>
+        <v>0.05842019625423724</v>
       </c>
       <c r="C53">
-        <v>-0.1379298013616573</v>
+        <v>0.1636319004243544</v>
       </c>
       <c r="D53">
-        <v>-9.541228932454147e-05</v>
+        <v>-0.02094763003562824</v>
       </c>
       <c r="E53">
-        <v>0.03540322823619486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02690669273811256</v>
+      </c>
+      <c r="F53">
+        <v>0.03918952373940833</v>
+      </c>
+      <c r="G53">
+        <v>-0.00738290692273398</v>
+      </c>
+      <c r="H53">
+        <v>-0.005757632885860501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004057365827910723</v>
+        <v>0.01010258514926539</v>
       </c>
       <c r="C54">
-        <v>-0.02348376588609629</v>
+        <v>0.04062171701770815</v>
       </c>
       <c r="D54">
-        <v>0.08612072870235386</v>
+        <v>0.07136201780166476</v>
       </c>
       <c r="E54">
-        <v>0.03318412217429188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04758950912197928</v>
+      </c>
+      <c r="F54">
+        <v>0.01012219197872473</v>
+      </c>
+      <c r="G54">
+        <v>-0.0232426828322312</v>
+      </c>
+      <c r="H54">
+        <v>-0.02832418402949861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08351825919168827</v>
+        <v>0.04096070432462704</v>
       </c>
       <c r="C55">
-        <v>-0.1149635740557013</v>
+        <v>0.1284637072773411</v>
       </c>
       <c r="D55">
-        <v>0.0007177262908607443</v>
+        <v>-0.04513946061898531</v>
       </c>
       <c r="E55">
-        <v>-0.007888202672032354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.009148215616518414</v>
+      </c>
+      <c r="F55">
+        <v>0.001507944966507568</v>
+      </c>
+      <c r="G55">
+        <v>-0.01586646151498679</v>
+      </c>
+      <c r="H55">
+        <v>0.005149023078811173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1211572528601643</v>
+        <v>0.05844602826944487</v>
       </c>
       <c r="C56">
-        <v>-0.1633889077338264</v>
+        <v>0.1926921138325607</v>
       </c>
       <c r="D56">
-        <v>0.02490221601143984</v>
+        <v>-0.0395617015890576</v>
       </c>
       <c r="E56">
-        <v>-0.01189332806884317</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0331848327188189</v>
+      </c>
+      <c r="F56">
+        <v>0.001927825599154159</v>
+      </c>
+      <c r="G56">
+        <v>-0.06694797693967297</v>
+      </c>
+      <c r="H56">
+        <v>-0.005910166061901086</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003759166207937785</v>
+        <v>0.009015431562469787</v>
       </c>
       <c r="C58">
-        <v>-0.02004226760761348</v>
+        <v>0.0698446237858113</v>
       </c>
       <c r="D58">
-        <v>0.2244405386340201</v>
+        <v>0.2597797302950952</v>
       </c>
       <c r="E58">
-        <v>0.1851353641274739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.09251942623061461</v>
+      </c>
+      <c r="F58">
+        <v>0.1450628045167643</v>
+      </c>
+      <c r="G58">
+        <v>-0.1683323225502784</v>
+      </c>
+      <c r="H58">
+        <v>-0.08480410086846871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2064132262052539</v>
+        <v>0.260656949175246</v>
       </c>
       <c r="C59">
-        <v>0.1199766289201878</v>
+        <v>-0.05352921633209744</v>
       </c>
       <c r="D59">
-        <v>0.05774579847185279</v>
+        <v>0.04431898044924154</v>
       </c>
       <c r="E59">
-        <v>0.04038433307261845</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01298224053600769</v>
+      </c>
+      <c r="F59">
+        <v>0.01821025442908697</v>
+      </c>
+      <c r="G59">
+        <v>-0.03333287100643958</v>
+      </c>
+      <c r="H59">
+        <v>0.03389054675196035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1751367228983825</v>
+        <v>0.1522410350381684</v>
       </c>
       <c r="C60">
-        <v>-0.1122523201000374</v>
+        <v>0.1676291700546007</v>
       </c>
       <c r="D60">
-        <v>0.1247932448811479</v>
+        <v>0.03771419707018044</v>
       </c>
       <c r="E60">
-        <v>-0.06082339540006051</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1077591817906937</v>
+      </c>
+      <c r="F60">
+        <v>-0.2021898536184135</v>
+      </c>
+      <c r="G60">
+        <v>0.2534555489388181</v>
+      </c>
+      <c r="H60">
+        <v>0.147207817137858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02003212634802807</v>
+        <v>0.012279816816933</v>
       </c>
       <c r="C61">
-        <v>-0.05947852274409744</v>
+        <v>0.08185153147896179</v>
       </c>
       <c r="D61">
-        <v>0.07545980803531196</v>
+        <v>0.05434879974850999</v>
       </c>
       <c r="E61">
-        <v>0.009658542794591624</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06251484670111564</v>
+      </c>
+      <c r="F61">
+        <v>-0.01270495498229804</v>
+      </c>
+      <c r="G61">
+        <v>0.004569740367821089</v>
+      </c>
+      <c r="H61">
+        <v>-0.002732520164513543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009504960079993286</v>
+        <v>0.01540784841966311</v>
       </c>
       <c r="C63">
-        <v>-0.02752823515585329</v>
+        <v>0.04659559249625386</v>
       </c>
       <c r="D63">
-        <v>0.07752482359823021</v>
+        <v>0.04689525090210118</v>
       </c>
       <c r="E63">
-        <v>0.03778042109315301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.083762039568229</v>
+      </c>
+      <c r="F63">
+        <v>0.02187327724559459</v>
+      </c>
+      <c r="G63">
+        <v>-0.008037244894016696</v>
+      </c>
+      <c r="H63">
+        <v>-0.00802674112256313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04499662517865724</v>
+        <v>0.01513523118166565</v>
       </c>
       <c r="C64">
-        <v>-0.09510358561296552</v>
+        <v>0.1061483198852635</v>
       </c>
       <c r="D64">
-        <v>0.01710441680972817</v>
+        <v>0.007111991729117423</v>
       </c>
       <c r="E64">
-        <v>0.02371008125326156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03304672823852005</v>
+      </c>
+      <c r="F64">
+        <v>0.01738966823700267</v>
+      </c>
+      <c r="G64">
+        <v>0.02508172800599429</v>
+      </c>
+      <c r="H64">
+        <v>-0.04104207475575074</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02555904040308521</v>
+        <v>0.02585585987482365</v>
       </c>
       <c r="C65">
-        <v>-0.02006204202594647</v>
+        <v>0.04616485062525218</v>
       </c>
       <c r="D65">
-        <v>0.09510023612057836</v>
+        <v>0.0918939391084032</v>
       </c>
       <c r="E65">
-        <v>0.03902528551135567</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.07221589623650469</v>
+      </c>
+      <c r="F65">
+        <v>-0.01052185989336222</v>
+      </c>
+      <c r="G65">
+        <v>0.04955942873441414</v>
+      </c>
+      <c r="H65">
+        <v>-0.02100134184019116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01974033806946183</v>
+        <v>0.008003671701800311</v>
       </c>
       <c r="C66">
-        <v>-0.07553753948409217</v>
+        <v>0.1107514502094546</v>
       </c>
       <c r="D66">
-        <v>0.1298124058564677</v>
+        <v>0.1039558352487103</v>
       </c>
       <c r="E66">
-        <v>0.03088666496373613</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.08602902829260284</v>
+      </c>
+      <c r="F66">
+        <v>-0.006699961100700951</v>
+      </c>
+      <c r="G66">
+        <v>-0.02379794726104498</v>
+      </c>
+      <c r="H66">
+        <v>-0.01529672933702467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01573292578531408</v>
+        <v>0.01809177415346688</v>
       </c>
       <c r="C67">
-        <v>-0.02091325069339386</v>
+        <v>0.03643028113910192</v>
       </c>
       <c r="D67">
-        <v>0.05100859498214765</v>
+        <v>0.04475282572858034</v>
       </c>
       <c r="E67">
-        <v>0.0002083445665248865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03654931673319217</v>
+      </c>
+      <c r="F67">
+        <v>-0.01930095202451649</v>
+      </c>
+      <c r="G67">
+        <v>-0.006615142160605386</v>
+      </c>
+      <c r="H67">
+        <v>-0.02733410520015869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2157696112715319</v>
+        <v>0.279742271289957</v>
       </c>
       <c r="C68">
-        <v>0.1312510932353446</v>
+        <v>-0.06660417509928596</v>
       </c>
       <c r="D68">
-        <v>0.02876056998619525</v>
+        <v>0.03216465736919719</v>
       </c>
       <c r="E68">
-        <v>0.02836024202738065</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009208862532782526</v>
+      </c>
+      <c r="F68">
+        <v>0.02483869737325738</v>
+      </c>
+      <c r="G68">
+        <v>-0.05073113998263989</v>
+      </c>
+      <c r="H68">
+        <v>0.007728193787743286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04810483115662104</v>
+        <v>0.01471223415512609</v>
       </c>
       <c r="C69">
-        <v>-0.1169115947991781</v>
+        <v>0.1115605563447954</v>
       </c>
       <c r="D69">
-        <v>0.07303415218882131</v>
+        <v>0.01723493758993309</v>
       </c>
       <c r="E69">
-        <v>0.03001924612718408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01184054558964845</v>
+      </c>
+      <c r="F69">
+        <v>-0.01038571337668935</v>
+      </c>
+      <c r="G69">
+        <v>0.00924315097511004</v>
+      </c>
+      <c r="H69">
+        <v>0.006709958672377797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2354255928720114</v>
+        <v>0.2725214774638093</v>
       </c>
       <c r="C71">
-        <v>0.1530141031430909</v>
+        <v>-0.08174447714749843</v>
       </c>
       <c r="D71">
-        <v>0.01802022460527861</v>
+        <v>0.008722546777309867</v>
       </c>
       <c r="E71">
-        <v>0.005229696213624931</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007291123297022951</v>
+      </c>
+      <c r="F71">
+        <v>0.01224616717472732</v>
+      </c>
+      <c r="G71">
+        <v>-0.04332440153094227</v>
+      </c>
+      <c r="H71">
+        <v>-0.01686950209175609</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09674847721637872</v>
+        <v>0.06330835075711758</v>
       </c>
       <c r="C72">
-        <v>-0.07794102520369413</v>
+        <v>0.1239573942449753</v>
       </c>
       <c r="D72">
-        <v>0.09936992115542696</v>
+        <v>0.04311486709450402</v>
       </c>
       <c r="E72">
-        <v>0.02402279906603669</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08308396232506757</v>
+      </c>
+      <c r="F72">
+        <v>-0.01681157472703292</v>
+      </c>
+      <c r="G72">
+        <v>0.03492092660267514</v>
+      </c>
+      <c r="H72">
+        <v>-0.0006158485976860998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1712591498120014</v>
+        <v>0.1586270821332335</v>
       </c>
       <c r="C73">
-        <v>-0.08742149218205225</v>
+        <v>0.167061117935357</v>
       </c>
       <c r="D73">
-        <v>0.1884744525019476</v>
+        <v>0.05462450014192399</v>
       </c>
       <c r="E73">
-        <v>-0.09894061289261018</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2703659960169785</v>
+      </c>
+      <c r="F73">
+        <v>-0.3017111535757357</v>
+      </c>
+      <c r="G73">
+        <v>0.4031590057592401</v>
+      </c>
+      <c r="H73">
+        <v>0.1530277088425913</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09602067249604951</v>
+        <v>0.05124386825344245</v>
       </c>
       <c r="C74">
-        <v>-0.1224463235478882</v>
+        <v>0.1417961953801436</v>
       </c>
       <c r="D74">
-        <v>-0.04619690355848468</v>
+        <v>-0.04821451735005475</v>
       </c>
       <c r="E74">
-        <v>0.01585961872790162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03152672281300759</v>
+      </c>
+      <c r="F74">
+        <v>0.03269365114264911</v>
+      </c>
+      <c r="G74">
+        <v>0.006091476444649869</v>
+      </c>
+      <c r="H74">
+        <v>0.003633067048415562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2053224773905863</v>
+        <v>0.09607111656211766</v>
       </c>
       <c r="C75">
-        <v>-0.2214264486231421</v>
+        <v>0.2606806656513192</v>
       </c>
       <c r="D75">
-        <v>-0.05159396730414156</v>
+        <v>-0.1173611365905175</v>
       </c>
       <c r="E75">
-        <v>-0.09623106708540995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1187157998668678</v>
+      </c>
+      <c r="F75">
+        <v>-0.05318456085746018</v>
+      </c>
+      <c r="G75">
+        <v>-0.1071224556968154</v>
+      </c>
+      <c r="H75">
+        <v>-0.08322040003807464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1242276470775007</v>
+        <v>0.05885019423508173</v>
       </c>
       <c r="C76">
-        <v>-0.1488274273373034</v>
+        <v>0.1779353939860848</v>
       </c>
       <c r="D76">
-        <v>0.005551045502236164</v>
+        <v>-0.04948634928666287</v>
       </c>
       <c r="E76">
-        <v>-0.02150353047376062</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04098482330601716</v>
+      </c>
+      <c r="F76">
+        <v>-0.008581984173618145</v>
+      </c>
+      <c r="G76">
+        <v>-0.04444834454296905</v>
+      </c>
+      <c r="H76">
+        <v>-0.01839448583345896</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002634605434108331</v>
+        <v>-0.002007206690381597</v>
       </c>
       <c r="C77">
-        <v>-0.08026510737668618</v>
+        <v>0.1215691151802061</v>
       </c>
       <c r="D77">
-        <v>0.2273053117336038</v>
+        <v>0.5435030440823138</v>
       </c>
       <c r="E77">
-        <v>0.1335250093598153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7453115146156161</v>
+      </c>
+      <c r="F77">
+        <v>-0.1547835185935791</v>
+      </c>
+      <c r="G77">
+        <v>0.1970260258971098</v>
+      </c>
+      <c r="H77">
+        <v>0.007425550691353903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03114940705379636</v>
+        <v>0.02287490724108215</v>
       </c>
       <c r="C78">
-        <v>-0.07473082521800928</v>
+        <v>0.09589560401347233</v>
       </c>
       <c r="D78">
-        <v>0.1554657261664676</v>
+        <v>0.08217367033273958</v>
       </c>
       <c r="E78">
-        <v>0.09498533054066308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0904207149674915</v>
+      </c>
+      <c r="F78">
+        <v>0.04631704588545942</v>
+      </c>
+      <c r="G78">
+        <v>-0.101466423926163</v>
+      </c>
+      <c r="H78">
+        <v>0.03562627272337486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1059560354452512</v>
+        <v>0.05070482623172004</v>
       </c>
       <c r="C79">
-        <v>-0.2131564010168176</v>
+        <v>0.2174367775277248</v>
       </c>
       <c r="D79">
-        <v>-0.5045735030796089</v>
+        <v>-0.1379896763418729</v>
       </c>
       <c r="E79">
-        <v>0.7535729240875843</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1017930182171144</v>
+      </c>
+      <c r="F79">
+        <v>0.783324697587967</v>
+      </c>
+      <c r="G79">
+        <v>0.4342113033527467</v>
+      </c>
+      <c r="H79">
+        <v>0.02814482870449683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00113074590914619</v>
+        <v>0.006874024677981308</v>
       </c>
       <c r="C80">
-        <v>-0.04706476727864755</v>
+        <v>0.04671367853128824</v>
       </c>
       <c r="D80">
-        <v>0.04467745364236255</v>
+        <v>0.02476306909513766</v>
       </c>
       <c r="E80">
-        <v>0.004836715874727342</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06798902483058375</v>
+      </c>
+      <c r="F80">
+        <v>-0.00258254979556162</v>
+      </c>
+      <c r="G80">
+        <v>-0.02136347985717424</v>
+      </c>
+      <c r="H80">
+        <v>0.09188781364332275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09656515685215426</v>
+        <v>0.03296654420415276</v>
       </c>
       <c r="C81">
-        <v>-0.1431999168406113</v>
+        <v>0.158307081847385</v>
       </c>
       <c r="D81">
-        <v>-0.07367578275803473</v>
+        <v>-0.07122432858808313</v>
       </c>
       <c r="E81">
-        <v>-0.007748641805114951</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05854812091609663</v>
+      </c>
+      <c r="F81">
+        <v>0.05156414294576973</v>
+      </c>
+      <c r="G81">
+        <v>-0.06650510418167108</v>
+      </c>
+      <c r="H81">
+        <v>0.004650686810707986</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2004168205563444</v>
+        <v>0.07637235292701469</v>
       </c>
       <c r="C82">
-        <v>-0.3141095617321096</v>
+        <v>0.294998582582986</v>
       </c>
       <c r="D82">
-        <v>-0.1064962399682857</v>
+        <v>-0.2159695347281893</v>
       </c>
       <c r="E82">
-        <v>-0.2346180165331151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1191256497673379</v>
+      </c>
+      <c r="F82">
+        <v>-0.1170666830202025</v>
+      </c>
+      <c r="G82">
+        <v>-0.1511617708726566</v>
+      </c>
+      <c r="H82">
+        <v>-0.01072226525498542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01408141407360526</v>
+        <v>-0.007720717272094025</v>
       </c>
       <c r="C83">
-        <v>-0.04948149085325587</v>
+        <v>0.01759959148245219</v>
       </c>
       <c r="D83">
-        <v>0.005501978576393771</v>
+        <v>0.02396807741647536</v>
       </c>
       <c r="E83">
-        <v>0.0410319585468368</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.1020360588196249</v>
+      </c>
+      <c r="F83">
+        <v>0.09639866419402233</v>
+      </c>
+      <c r="G83">
+        <v>-0.2690414630922357</v>
+      </c>
+      <c r="H83">
+        <v>0.8932342194977657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.000662606123610999</v>
+        <v>-0.004133447622835467</v>
       </c>
       <c r="C84">
-        <v>-0.003661681774998727</v>
+        <v>0.01692138886167223</v>
       </c>
       <c r="D84">
-        <v>0.01164116267856449</v>
+        <v>0.04140327962907323</v>
       </c>
       <c r="E84">
-        <v>0.0005727765955432354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01832492611977207</v>
+      </c>
+      <c r="F84">
+        <v>0.02986729756961031</v>
+      </c>
+      <c r="G84">
+        <v>-0.05421159212012509</v>
+      </c>
+      <c r="H84">
+        <v>-0.06066497797654416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1269933141144632</v>
+        <v>0.05444758499316382</v>
       </c>
       <c r="C85">
-        <v>-0.1554620390411448</v>
+        <v>0.1767621220434206</v>
       </c>
       <c r="D85">
-        <v>-0.08293165454715923</v>
+        <v>-0.1131199693514155</v>
       </c>
       <c r="E85">
-        <v>0.004567191536879464</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.02440807403371831</v>
+      </c>
+      <c r="F85">
+        <v>0.05709104494836245</v>
+      </c>
+      <c r="G85">
+        <v>-0.01830063010461019</v>
+      </c>
+      <c r="H85">
+        <v>-0.01824270778682037</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02199312362944041</v>
+        <v>0.01627798052505315</v>
       </c>
       <c r="C86">
-        <v>-0.01150325806782586</v>
+        <v>0.04132052986746795</v>
       </c>
       <c r="D86">
-        <v>0.1135040178211818</v>
+        <v>0.1102854177565861</v>
       </c>
       <c r="E86">
-        <v>0.05224956731780809</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.009877857156437407</v>
+      </c>
+      <c r="F86">
+        <v>0.02385037930189218</v>
+      </c>
+      <c r="G86">
+        <v>0.00396385173897046</v>
+      </c>
+      <c r="H86">
+        <v>-0.01493702506710242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02001525406430693</v>
+        <v>0.01009223490834549</v>
       </c>
       <c r="C87">
-        <v>-0.03691366906886528</v>
+        <v>0.0692888700577733</v>
       </c>
       <c r="D87">
-        <v>0.1358767926259031</v>
+        <v>0.1229461205683386</v>
       </c>
       <c r="E87">
-        <v>0.09180980560872556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.06014441599249943</v>
+      </c>
+      <c r="F87">
+        <v>0.04729205336104492</v>
+      </c>
+      <c r="G87">
+        <v>-0.08384016803122619</v>
+      </c>
+      <c r="H87">
+        <v>-0.006294713587132303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04599962189987491</v>
+        <v>0.03393917277964023</v>
       </c>
       <c r="C88">
-        <v>-0.05053209187922848</v>
+        <v>0.07207394300053339</v>
       </c>
       <c r="D88">
-        <v>0.008180300074973373</v>
+        <v>0.01256627538888145</v>
       </c>
       <c r="E88">
-        <v>0.02527454329522997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03641265161657922</v>
+      </c>
+      <c r="F88">
+        <v>0.02047722158989368</v>
+      </c>
+      <c r="G88">
+        <v>0.00859329091857599</v>
+      </c>
+      <c r="H88">
+        <v>-0.01028336406629998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3512288967775197</v>
+        <v>0.3972526892491214</v>
       </c>
       <c r="C89">
-        <v>0.2898341916107688</v>
+        <v>-0.1624867350510017</v>
       </c>
       <c r="D89">
-        <v>0.02373479483347027</v>
+        <v>0.05107749763954685</v>
       </c>
       <c r="E89">
-        <v>0.1108576387607767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0280131256145068</v>
+      </c>
+      <c r="F89">
+        <v>0.07875247014228484</v>
+      </c>
+      <c r="G89">
+        <v>-0.08343394488230228</v>
+      </c>
+      <c r="H89">
+        <v>0.0516021913226536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2797386782032178</v>
+        <v>0.3228292296335541</v>
       </c>
       <c r="C90">
-        <v>0.2100897231526742</v>
+        <v>-0.1030264773978526</v>
       </c>
       <c r="D90">
-        <v>0.06004620375749065</v>
+        <v>0.03409188558567372</v>
       </c>
       <c r="E90">
-        <v>0.005996710340876388</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.001002152270554501</v>
+      </c>
+      <c r="F90">
+        <v>-0.006974059893958794</v>
+      </c>
+      <c r="G90">
+        <v>-0.05500378470203616</v>
+      </c>
+      <c r="H90">
+        <v>0.004449706764228942</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1309697366594731</v>
+        <v>0.0636387662688747</v>
       </c>
       <c r="C91">
-        <v>-0.2017014621713948</v>
+        <v>0.2028376364635824</v>
       </c>
       <c r="D91">
-        <v>-0.0904785460826374</v>
+        <v>-0.09715309791184699</v>
       </c>
       <c r="E91">
-        <v>0.03416452115309102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08696439037129106</v>
+      </c>
+      <c r="F91">
+        <v>0.05928036834578886</v>
+      </c>
+      <c r="G91">
+        <v>-0.01256747047237106</v>
+      </c>
+      <c r="H91">
+        <v>0.02033552866653208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2702026915343971</v>
+        <v>0.3391640385092431</v>
       </c>
       <c r="C92">
-        <v>0.2377853371779482</v>
+        <v>-0.1429863022347883</v>
       </c>
       <c r="D92">
-        <v>-0.03754908516476967</v>
+        <v>0.02783585268024915</v>
       </c>
       <c r="E92">
-        <v>0.01926106703390638</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06455407620721111</v>
+      </c>
+      <c r="F92">
+        <v>0.03591635777675464</v>
+      </c>
+      <c r="G92">
+        <v>0.001248043107801871</v>
+      </c>
+      <c r="H92">
+        <v>-0.1369342512427872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2973331335248033</v>
+        <v>0.3291299607199676</v>
       </c>
       <c r="C93">
-        <v>0.2146211366672192</v>
+        <v>-0.1174670442425097</v>
       </c>
       <c r="D93">
-        <v>-0.02413427517037726</v>
+        <v>-0.0261066292532381</v>
       </c>
       <c r="E93">
-        <v>-0.0116241824736219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005209906518793721</v>
+      </c>
+      <c r="F93">
+        <v>0.009747798580004491</v>
+      </c>
+      <c r="G93">
+        <v>0.02080028270627514</v>
+      </c>
+      <c r="H93">
+        <v>-0.02391724616804805</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2465698061601066</v>
+        <v>0.1182400732206348</v>
       </c>
       <c r="C94">
-        <v>-0.2904845378960863</v>
+        <v>0.3201605701279238</v>
       </c>
       <c r="D94">
-        <v>-0.2001209634996997</v>
+        <v>-0.3411713230427342</v>
       </c>
       <c r="E94">
-        <v>-0.3077352550106465</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1588490446851047</v>
+      </c>
+      <c r="F94">
+        <v>-0.1471475716754987</v>
+      </c>
+      <c r="G94">
+        <v>-0.2940181023897915</v>
+      </c>
+      <c r="H94">
+        <v>-0.1100296145134025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.006339359467723151</v>
+        <v>0.01546219869291414</v>
       </c>
       <c r="C95">
-        <v>-0.05057378434506927</v>
+        <v>0.07817174432680575</v>
       </c>
       <c r="D95">
-        <v>0.1101333173853106</v>
+        <v>0.1411767339834873</v>
       </c>
       <c r="E95">
-        <v>0.04373198226984872</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.08688896518082341</v>
+      </c>
+      <c r="F95">
+        <v>-0.03963589874008119</v>
+      </c>
+      <c r="G95">
+        <v>0.06607857262030616</v>
+      </c>
+      <c r="H95">
+        <v>-0.07515572425110678</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002709547457341077</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0008854016729237854</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0002731567833935961</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003455928815916719</v>
+      </c>
+      <c r="F97">
+        <v>0.000529403475564257</v>
+      </c>
+      <c r="G97">
+        <v>-0.001029367495645215</v>
+      </c>
+      <c r="H97">
+        <v>-0.005637795401052176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1446799521912344</v>
+        <v>0.1345821744133837</v>
       </c>
       <c r="C98">
-        <v>-0.1056221542540413</v>
+        <v>0.1652759518722402</v>
       </c>
       <c r="D98">
-        <v>0.1243617845395795</v>
+        <v>0.01156502902825648</v>
       </c>
       <c r="E98">
-        <v>-0.1060805307608778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1745392739235786</v>
+      </c>
+      <c r="F98">
+        <v>-0.2507823139983968</v>
+      </c>
+      <c r="G98">
+        <v>0.2980625235274162</v>
+      </c>
+      <c r="H98">
+        <v>0.130786806783085</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004308271510175793</v>
+        <v>0.001753225474621862</v>
       </c>
       <c r="C101">
-        <v>-0.02100965087630578</v>
+        <v>0.03944019143866414</v>
       </c>
       <c r="D101">
-        <v>0.07106566614078154</v>
+        <v>0.08455425174131832</v>
       </c>
       <c r="E101">
-        <v>0.04889176046800384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1054659816293274</v>
+      </c>
+      <c r="F101">
+        <v>0.03936084920825085</v>
+      </c>
+      <c r="G101">
+        <v>-0.01433694301950669</v>
+      </c>
+      <c r="H101">
+        <v>0.03622145948114537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08188208982855386</v>
+        <v>0.01859816977114003</v>
       </c>
       <c r="C102">
-        <v>-0.1676878299249616</v>
+        <v>0.1363682090815207</v>
       </c>
       <c r="D102">
-        <v>-0.01618614530278823</v>
+        <v>-0.09325914580777975</v>
       </c>
       <c r="E102">
-        <v>-0.1063444139342854</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.06293310335144091</v>
+      </c>
+      <c r="F102">
+        <v>-0.08417409764621808</v>
+      </c>
+      <c r="G102">
+        <v>-0.01355410652527794</v>
+      </c>
+      <c r="H102">
+        <v>0.02299423868507561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
